--- a/public/document/Asset Category.xlsx
+++ b/public/document/Asset Category.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMING\PROJECT ASSET PML\pml-apps\public\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9A895A-03FF-42C4-B62A-64223F8A8C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633A2D09-6F3D-4F8E-9D53-2BC7E2A18FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>GNRL</t>
   </si>
@@ -68,10 +71,6 @@
     <t>Kompas</t>
   </si>
   <si>
-    <t>Public Address
-(Amplifier, speaker TOA, MIcrophone)</t>
-  </si>
-  <si>
     <t>Radio SSB</t>
   </si>
   <si>
@@ -142,6 +141,30 @@
   </si>
   <si>
     <t>Mesin Jangkar</t>
+  </si>
+  <si>
+    <t>Amplifier</t>
+  </si>
+  <si>
+    <t>AIS</t>
+  </si>
+  <si>
+    <t>Antena</t>
+  </si>
+  <si>
+    <t>Searchlight</t>
+  </si>
+  <si>
+    <t>HT Haluan Barge</t>
+  </si>
+  <si>
+    <t>HT Buritan Barge</t>
+  </si>
+  <si>
+    <t>HT Haluan TugBoat</t>
+  </si>
+  <si>
+    <t>Navtex</t>
   </si>
 </sst>
 </file>
@@ -179,12 +202,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -215,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -226,6 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,16 +537,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -574,215 +603,264 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/document/Asset Category.xlsx
+++ b/public/document/Asset Category.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMING\PROJECT ASSET PML\pml-apps\public\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633A2D09-6F3D-4F8E-9D53-2BC7E2A18FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB14EFD-7DDB-4C5B-9329-18EA70BADB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>GNRL</t>
   </si>
@@ -77,12 +77,6 @@
     <t xml:space="preserve">Radio VHF </t>
   </si>
   <si>
-    <t>HT</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
     <t>Printer</t>
   </si>
   <si>
@@ -165,6 +159,9 @@
   </si>
   <si>
     <t>Navtex</t>
+  </si>
+  <si>
+    <t>Laptop/Tablet</t>
   </si>
 </sst>
 </file>
@@ -537,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,34 +602,34 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -653,210 +650,202 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>15</v>
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B38" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
